--- a/Table_Ag_Cut.xlsx
+++ b/Table_Ag_Cut.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Comparative-analyses-of-all-FDA-EUA-approved--rapid-antigen-tests-and-RT-PCR-for-COVID-19-quarantine-and-surveillance-based-isolation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Comparative RA test and RT-PCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DD962-D895-4AEC-9F12-0F112837761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A484E1D-4A6C-48A3-B37D-D4188733601E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18030" yWindow="345" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference" sheetId="5" r:id="rId1"/>
-    <sheet name="Ag_Cut_6day" sheetId="2" r:id="rId2"/>
-    <sheet name="Ag_Cut_10day" sheetId="3" r:id="rId3"/>
-    <sheet name="Baseline" sheetId="4" r:id="rId4"/>
+    <sheet name="Ag_Cut_6day" sheetId="6" r:id="rId2"/>
+    <sheet name="Ag_Cut_10day" sheetId="7" r:id="rId3"/>
+    <sheet name="Baseline" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,13 +120,13 @@
     <t>Serial_Testing_Freq</t>
   </si>
   <si>
+    <t>5.6days</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
     <t>False_Positive_Risk</t>
-  </si>
-  <si>
-    <t>5.6days</t>
-  </si>
-  <si>
-    <t>10 days</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -180,11 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,19 +512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746FE114-DDA6-476A-A31C-CC07ACB2152D}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
+      <c r="A1" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -533,7 +543,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,7 +561,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +579,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -587,7 +597,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +615,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,7 +633,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -641,7 +651,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,7 +669,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,7 +687,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -695,7 +705,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -713,7 +723,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,7 +741,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -749,7 +759,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -767,7 +777,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +795,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -803,7 +813,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,7 +831,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -839,7 +849,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -857,7 +867,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
@@ -875,7 +885,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -893,7 +903,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -911,7 +921,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -929,7 +939,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -947,7 +957,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -965,8 +975,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
+      <c r="A26" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -982,7 +992,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1010,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1028,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1046,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1064,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1082,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1100,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1118,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1136,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1154,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1172,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1190,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1208,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1226,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1244,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1262,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1280,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1298,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1316,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1334,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1352,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1370,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1388,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1406,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,453 +1433,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1898,7 +1461,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1994,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2045,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2065,10 +1628,10 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2099,10 +1662,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2130,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2198,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2218,10 +1781,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2269,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2314,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2343,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2739,6 +2302,451 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25">
